--- a/latest_projections/DailyProjections_citywide20250813.xlsx
+++ b/latest_projections/DailyProjections_citywide20250813.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7962 (5584, 12315)</t>
+          <t>8645 (5984, 13492)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>307 (242, 408)</t>
+          <t>339 (266, 454)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16 (10, 25)</t>
+          <t>22 (13, 36)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>19 (10, 32)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>14 (9, 23)</t>
+          <t>20 (12, 33)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>17 (10, 29)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7979 (5509, 12505)</t>
+          <t>8658 (5900, 13691)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>311 (243, 419)</t>
+          <t>343 (267, 465)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>22 (13, 37)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>19 (11, 32)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14 (9, 23)</t>
+          <t>20 (12, 33)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>17 (10, 29)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8022 (5436, 12773)</t>
+          <t>8697 (5824, 13978)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>315 (244, 430)</t>
+          <t>347 (267, 477)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>22 (14, 38)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>19 (11, 33)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3 (1, 4)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>21 (13, 34)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8075 (5379, 13063)</t>
+          <t>8751 (5760, 14289)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>318 (243, 441)</t>
+          <t>351 (266, 489)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>23 (14, 38)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>19 (11, 33)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21 (13, 34)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>18 (10, 30)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>15 (9, 24)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>13 (7, 21)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8148 (5334, 13357)</t>
+          <t>8823 (5703, 14612)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>322 (242, 452)</t>
+          <t>355 (265, 502)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>23 (14, 39)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (11, 34)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>21 (13, 35)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>18 (10, 30)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>15 (9, 24)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13 (7, 21)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8224 (5284, 13675)</t>
+          <t>8899 (5652, 14951)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>325 (241, 464)</t>
+          <t>358 (263, 514)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16 (10, 28)</t>
+          <t>23 (14, 40)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (11, 35)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>21 (13, 35)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>18 (10, 31)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>15 (9, 25)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>13 (7, 22)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8312 (5249, 13983)</t>
+          <t>8991 (5610, 15292)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>327 (239, 476)</t>
+          <t>361 (261, 527)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>23 (14, 41)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14 (8, 25)</t>
+          <t>20 (11, 35)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>22 (13, 36)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>18 (10, 31)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>15 (9, 25)</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>13 (7, 22)</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8367 (5187, 14275)</t>
+          <t>9050 (5543, 15606)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>330 (236, 488)</t>
+          <t>364 (258, 540)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17 (10, 29)</t>
+          <t>23 (14, 41)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14 (8, 25)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>22 (13, 36)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8408 (5117, 14533)</t>
+          <t>9095 (5465, 15889)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>332 (233, 500)</t>
+          <t>366 (255, 553)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17 (10, 29)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14 (8, 26)</t>
+          <t>20 (10, 37)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>22 (13, 37)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13 (8, 23)</t>
+          <t>19 (10, 32)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8467 (5061, 14797)</t>
+          <t>9152 (5404, 16175)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>335 (231, 512)</t>
+          <t>369 (252, 566)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17 (10, 30)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14 (8, 26)</t>
+          <t>20 (10, 37)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>22 (13, 38)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13 (8, 23)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8523 (5014, 15092)</t>
+          <t>9214 (5348, 16480)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>337 (228, 524)</t>
+          <t>371 (249, 579)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17 (10, 31)</t>
+          <t>24 (13, 44)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14 (8, 27)</t>
+          <t>20 (10, 38)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>22 (13, 38)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8587 (4956, 15375)</t>
+          <t>9282 (5287, 16791)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>339 (225, 536)</t>
+          <t>373 (246, 591)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17 (10, 31)</t>
+          <t>24 (13, 45)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>23 (13, 39)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (10, 34)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8648 (4913, 15661)</t>
+          <t>9343 (5239, 17101)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>341 (222, 548)</t>
+          <t>375 (243, 604)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>24 (13, 46)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>20 (10, 40)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16 (10, 28)</t>
+          <t>23 (13, 39)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (10, 34)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8703 (4862, 15954)</t>
+          <t>9408 (5185, 17426)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>342 (219, 560)</t>
+          <t>377 (239, 617)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>24 (13, 46)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>20 (10, 40)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>16 (10, 28)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14 (8, 25)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89 (42, 175)</t>
+          <t>142 (70, 276)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76 (30, 159)</t>
+          <t>120 (51, 250)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9 (4, 21)</t>
+          <t>15 (7, 33)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>89 (42, 175)</t>
+          <t>142 (70, 276)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>76 (30, 159)</t>
+          <t>120 (51, 250)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9 (4, 21)</t>
+          <t>15 (7, 33)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90 (42, 178)</t>
+          <t>144 (70, 280)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76 (31, 161)</t>
+          <t>121 (51, 253)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>90 (42, 178)</t>
+          <t>144 (70, 280)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>76 (31, 161)</t>
+          <t>121 (51, 253)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91 (42, 181)</t>
+          <t>145 (70, 285)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77 (30, 164)</t>
+          <t>122 (51, 257)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91 (42, 181)</t>
+          <t>145 (70, 285)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>77 (30, 164)</t>
+          <t>122 (51, 257)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92 (42, 184)</t>
+          <t>146 (70, 289)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>78 (30, 166)</t>
+          <t>123 (51, 261)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>92 (42, 184)</t>
+          <t>146 (70, 289)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>78 (30, 166)</t>
+          <t>123 (51, 261)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93 (43, 187)</t>
+          <t>147 (70, 294)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>78 (31, 169)</t>
+          <t>124 (51, 265)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>93 (43, 187)</t>
+          <t>147 (70, 294)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>78 (31, 169)</t>
+          <t>124 (51, 265)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93 (43, 190)</t>
+          <t>149 (71, 298)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>79 (31, 172)</t>
+          <t>125 (51, 269)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>16 (7, 36)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>93 (43, 190)</t>
+          <t>149 (71, 298)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>79 (31, 172)</t>
+          <t>125 (51, 269)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>16 (7, 36)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94 (43, 193)</t>
+          <t>150 (71, 303)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>79 (30, 174)</t>
+          <t>126 (51, 273)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>16 (7, 36)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94 (43, 193)</t>
+          <t>150 (71, 303)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>79 (30, 174)</t>
+          <t>126 (51, 273)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>16 (7, 36)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95 (43, 196)</t>
+          <t>151 (71, 307)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>80 (30, 177)</t>
+          <t>127 (51, 277)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>95 (43, 196)</t>
+          <t>151 (71, 307)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>80 (30, 177)</t>
+          <t>127 (51, 277)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96 (43, 199)</t>
+          <t>152 (71, 312)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80 (30, 179)</t>
+          <t>128 (51, 281)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96 (43, 199)</t>
+          <t>152 (71, 312)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>80 (30, 179)</t>
+          <t>128 (51, 281)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97 (43, 202)</t>
+          <t>153 (71, 317)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>81 (30, 182)</t>
+          <t>129 (51, 285)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>15 (8, 30)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>97 (43, 202)</t>
+          <t>153 (71, 317)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>81 (30, 182)</t>
+          <t>129 (51, 285)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>15 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>97 (43, 205)</t>
+          <t>154 (70, 322)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>81 (30, 184)</t>
+          <t>129 (50, 289)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 39)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>97 (43, 205)</t>
+          <t>154 (70, 322)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>81 (30, 184)</t>
+          <t>129 (50, 289)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 39)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>98 (43, 208)</t>
+          <t>155 (70, 327)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>82 (30, 187)</t>
+          <t>130 (50, 293)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 39)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>98 (43, 208)</t>
+          <t>155 (70, 327)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>82 (30, 187)</t>
+          <t>130 (50, 293)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 39)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>98 (42, 211)</t>
+          <t>156 (70, 331)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>82 (30, 190)</t>
+          <t>131 (50, 297)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>98 (42, 211)</t>
+          <t>156 (70, 331)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>82 (30, 190)</t>
+          <t>131 (50, 297)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99 (42, 214)</t>
+          <t>157 (70, 337)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>82 (30, 192)</t>
+          <t>131 (50, 301)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>18 (7, 41)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>99 (42, 214)</t>
+          <t>157 (70, 337)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>82 (30, 192)</t>
+          <t>131 (50, 301)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>18 (7, 41)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
     </row>
